--- a/TroutLake/ParameterInputsTrout.xlsx
+++ b/TroutLake/ParameterInputsTrout.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>LakePerimeter</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>#SWGW Parameters</t>
+  </si>
+  <si>
+    <t>#Min/Resp Parameters</t>
+  </si>
+  <si>
+    <t>DOC_miner_const</t>
   </si>
 </sst>
 </file>
@@ -431,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,6 +640,22 @@
         <v>22</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TroutLake/ParameterInputsTrout.xlsx
+++ b/TroutLake/ParameterInputsTrout.xlsx
@@ -101,12 +101,6 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>gPOC/m/yr</t>
-  </si>
-  <si>
-    <t>gDOC/m/yr</t>
-  </si>
-  <si>
     <t>#General Parameters</t>
   </si>
   <si>
@@ -120,6 +114,12 @@
   </si>
   <si>
     <t>DOC_miner_const</t>
+  </si>
+  <si>
+    <t>gPOC/m/d</t>
+  </si>
+  <si>
+    <t>gDOC/m/d</t>
   </si>
 </sst>
 </file>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -533,7 +533,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -582,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,12 +642,12 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>5.0000000000000001E-3</v>

--- a/TroutLake/ParameterInputsTrout.xlsx
+++ b/TroutLake/ParameterInputsTrout.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derek\Box Sync\GLEON\SOS\TroutLake\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15720" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -429,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -440,7 +435,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +645,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>

--- a/TroutLake/ParameterInputsTrout.xlsx
+++ b/TroutLake/ParameterInputsTrout.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derek\Box Sync\GLEON\SOS\TroutLake\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15720" windowHeight="5925"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>LakePerimeter</t>
   </si>
@@ -115,6 +120,9 @@
   </si>
   <si>
     <t>gDOC/m/d</t>
+  </si>
+  <si>
+    <t>RespParam</t>
   </si>
 </sst>
 </file>
@@ -424,7 +432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -432,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,6 +659,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>1E-3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TroutLake/ParameterInputsTrout.xlsx
+++ b/TroutLake/ParameterInputsTrout.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derek\Box Sync\GLEON\SOS\TroutLake\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15720" windowHeight="5925"/>
   </bookViews>
@@ -432,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -442,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +599,7 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>

--- a/TroutLake/ParameterInputsTrout.xlsx
+++ b/TroutLake/ParameterInputsTrout.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>LakePerimeter</t>
   </si>
@@ -81,43 +81,40 @@
     <t>PropGW</t>
   </si>
   <si>
+    <t>g/m3</t>
+  </si>
+  <si>
+    <t>DOC_precip</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>#General Parameters</t>
+  </si>
+  <si>
+    <t>#Sedimentation Parameters</t>
+  </si>
+  <si>
+    <t>#SWGW Parameters</t>
+  </si>
+  <si>
+    <t>#Min/Resp Parameters</t>
+  </si>
+  <si>
+    <t>DOC_miner_const</t>
+  </si>
+  <si>
+    <t>gPOC/m/d</t>
+  </si>
+  <si>
+    <t>gDOC/m/d</t>
+  </si>
+  <si>
+    <t>RespParam</t>
+  </si>
+  <si>
     <t>DOC_gw</t>
-  </si>
-  <si>
-    <t>DOC_sw</t>
-  </si>
-  <si>
-    <t>g/m3</t>
-  </si>
-  <si>
-    <t>DOC_precip</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>#General Parameters</t>
-  </si>
-  <si>
-    <t>#Sedimentation Parameters</t>
-  </si>
-  <si>
-    <t>#SWGW Parameters</t>
-  </si>
-  <si>
-    <t>#Min/Resp Parameters</t>
-  </si>
-  <si>
-    <t>DOC_miner_const</t>
-  </si>
-  <si>
-    <t>gPOC/m/d</t>
-  </si>
-  <si>
-    <t>gDOC/m/d</t>
-  </si>
-  <si>
-    <t>RespParam</t>
   </si>
 </sst>
 </file>
@@ -438,7 +435,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +446,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -460,7 +457,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -531,7 +528,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,7 +544,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,61 +588,50 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B16">
-        <v>0.19</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>0.19</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>5.8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>3.0000000000000001E-3</v>
@@ -656,7 +642,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>1E-3</v>

--- a/TroutLake/ParameterInputsTrout.xlsx
+++ b/TroutLake/ParameterInputsTrout.xlsx
@@ -424,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +552,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -563,7 +563,7 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>

--- a/TroutLake/ParameterInputsTrout.xlsx
+++ b/TroutLake/ParameterInputsTrout.xlsx
@@ -424,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +563,7 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1.1100000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>

--- a/TroutLake/ParameterInputsTrout.xlsx
+++ b/TroutLake/ParameterInputsTrout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15720" windowHeight="5925"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15720" windowHeight="5865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,8 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -435,12 +436,13 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -465,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>32448</v>
+        <v>25900</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -487,7 +489,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>15650000</v>
+        <v>16079000</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -497,8 +499,9 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>229000000</v>
+      <c r="B6" s="1">
+        <f>B4*B5</f>
+        <v>234753400</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -613,14 +616,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
     </row>

--- a/TroutLake/ParameterInputsTrout.xlsx
+++ b/TroutLake/ParameterInputsTrout.xlsx
@@ -99,12 +99,6 @@
     <t>#SWGW Parameters</t>
   </si>
   <si>
-    <t>#Min/Resp Parameters</t>
-  </si>
-  <si>
-    <t>DOC_miner_const</t>
-  </si>
-  <si>
     <t>gPOC/m/d</t>
   </si>
   <si>
@@ -115,6 +109,12 @@
   </si>
   <si>
     <t>DOC_gw</t>
+  </si>
+  <si>
+    <t>#Leach/Resp Parameters</t>
+  </si>
+  <si>
+    <t>POC_lc</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -436,7 +436,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,12 +591,12 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -629,15 +629,15 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>3.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>1E-3</v>

--- a/TroutLake/ParameterInputsTrout.xlsx
+++ b/TroutLake/ParameterInputsTrout.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>LakePerimeter</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>POC_lc</t>
+  </si>
+  <si>
+    <t>R_auto</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,6 +657,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>0.8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
